--- a/Tools/LIFEnet/NXr_Events scenario_001_Active Clear each one at a time.xlsx
+++ b/Tools/LIFEnet/NXr_Events scenario_001_Active Clear each one at a time.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="-210" windowWidth="18210" windowHeight="9540"/>
+    <workbookView xWindow="2295" yWindow="15" windowWidth="18210" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="235">
   <si>
     <t>PointId</t>
   </si>
@@ -1011,7 +1011,7 @@
     <t>same as ev 593 datapoint 4135</t>
   </si>
   <si>
-    <t>Dummy PointID for continuity</t>
+    <t>Output power over 85% for one or more phase</t>
   </si>
 </sst>
 </file>
@@ -12565,10 +12565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K193"/>
+  <dimension ref="A1:K191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12576,7 +12576,7 @@
     <col min="1" max="1" width="8.140625" style="12" customWidth="1"/>
     <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" style="12" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="13" customWidth="1"/>
     <col min="7" max="7" width="8" style="13" bestFit="1" customWidth="1"/>
@@ -15758,7 +15758,7 @@
         <v>6</v>
       </c>
       <c r="G95" s="16">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H95" s="17">
         <v>0</v>
@@ -15792,7 +15792,7 @@
         <v>6</v>
       </c>
       <c r="G96" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H96" s="17">
         <v>0</v>
@@ -15809,24 +15809,22 @@
     </row>
     <row r="97" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A97" s="10">
-        <v>4872</v>
+        <v>4871</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C97" s="10">
-        <v>607</v>
+        <v>325</v>
       </c>
       <c r="D97" s="5" t="str">
         <f>VLOOKUP(C97,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Output load not supplied</v>
+        <v>Battery normal</v>
       </c>
       <c r="E97" s="5"/>
-      <c r="F97" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="F97" s="8"/>
       <c r="G97" s="16">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H97" s="17">
         <v>0</v>
@@ -15843,24 +15841,22 @@
     </row>
     <row r="98" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A98" s="10">
-        <v>4872</v>
+        <v>4871</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C98" s="10">
-        <v>607</v>
+        <v>325</v>
       </c>
       <c r="D98" s="5" t="str">
         <f>VLOOKUP(C98,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Output load not supplied</v>
+        <v>Battery normal</v>
       </c>
       <c r="E98" s="5"/>
-      <c r="F98" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="F98" s="8"/>
       <c r="G98" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H98" s="17">
         <v>0</v>
@@ -15883,16 +15879,18 @@
         <v>209</v>
       </c>
       <c r="C99" s="10">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="D99" s="5" t="str">
         <f>VLOOKUP(C99,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Battery normal</v>
+        <v>Flat battery</v>
       </c>
       <c r="E99" s="5"/>
-      <c r="F99" s="8"/>
+      <c r="F99" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G99" s="16">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H99" s="17">
         <v>0</v>
@@ -15915,16 +15913,18 @@
         <v>209</v>
       </c>
       <c r="C100" s="10">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="D100" s="5" t="str">
         <f>VLOOKUP(C100,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Battery normal</v>
+        <v>Flat battery</v>
       </c>
       <c r="E100" s="5"/>
-      <c r="F100" s="8"/>
+      <c r="F100" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G100" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H100" s="17">
         <v>0</v>
@@ -15939,26 +15939,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="101" spans="1:11" s="10" customFormat="1">
       <c r="A101" s="10">
-        <v>4871</v>
+        <v>4746</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C101" s="10">
-        <v>306</v>
+        <v>448</v>
       </c>
       <c r="D101" s="5" t="str">
         <f>VLOOKUP(C101,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Flat battery</v>
+        <v>Inverter on</v>
       </c>
       <c r="E101" s="5"/>
-      <c r="F101" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="F101" s="8"/>
       <c r="G101" s="16">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H101" s="17">
         <v>0</v>
@@ -15973,26 +15971,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:11" s="10" customFormat="1">
       <c r="A102" s="10">
-        <v>4871</v>
+        <v>4746</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C102" s="10">
-        <v>306</v>
+        <v>448</v>
       </c>
       <c r="D102" s="5" t="str">
         <f>VLOOKUP(C102,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Flat battery</v>
+        <v>Inverter on</v>
       </c>
       <c r="E102" s="5"/>
-      <c r="F102" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="F102" s="8"/>
       <c r="G102" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" s="17">
         <v>0</v>
@@ -16007,7 +16003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="10" customFormat="1">
+    <row r="103" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="10">
         <v>4746</v>
       </c>
@@ -16015,16 +16011,18 @@
         <v>213</v>
       </c>
       <c r="C103" s="10">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="D103" s="5" t="str">
         <f>VLOOKUP(C103,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Inverter on</v>
+        <v>Inverter off</v>
       </c>
       <c r="E103" s="5"/>
-      <c r="F103" s="8"/>
+      <c r="F103" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G103" s="16">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H103" s="17">
         <v>0</v>
@@ -16039,7 +16037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="10" customFormat="1">
+    <row r="104" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="10">
         <v>4746</v>
       </c>
@@ -16047,16 +16045,18 @@
         <v>213</v>
       </c>
       <c r="C104" s="10">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="D104" s="5" t="str">
         <f>VLOOKUP(C104,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Inverter on</v>
+        <v>Inverter off</v>
       </c>
       <c r="E104" s="5"/>
-      <c r="F104" s="8"/>
+      <c r="F104" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G104" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" s="17">
         <v>0</v>
@@ -16073,24 +16073,24 @@
     </row>
     <row r="105" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A105" s="10">
-        <v>4746</v>
+        <v>4299</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C105" s="10">
-        <v>415</v>
+        <v>627</v>
       </c>
       <c r="D105" s="5" t="str">
         <f>VLOOKUP(C105,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Inverter off</v>
+        <v>Maintenance Bypass switch closed</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G105" s="16">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H105" s="17">
         <v>0</v>
@@ -16107,17 +16107,17 @@
     </row>
     <row r="106" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A106" s="10">
-        <v>4746</v>
+        <v>4299</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C106" s="10">
-        <v>415</v>
+        <v>627</v>
       </c>
       <c r="D106" s="5" t="str">
         <f>VLOOKUP(C106,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Inverter off</v>
+        <v>Maintenance Bypass switch closed</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="8" t="s">
@@ -16141,24 +16141,24 @@
     </row>
     <row r="107" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A107" s="10">
-        <v>4299</v>
+        <v>4123</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C107" s="10">
-        <v>627</v>
+        <v>126</v>
       </c>
       <c r="D107" s="5" t="str">
         <f>VLOOKUP(C107,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Maintenance Bypass switch closed</v>
+        <v>Ups Warning</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G107" s="16">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H107" s="17">
         <v>0</v>
@@ -16175,17 +16175,17 @@
     </row>
     <row r="108" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A108" s="10">
-        <v>4299</v>
+        <v>4123</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C108" s="10">
-        <v>627</v>
+        <v>126</v>
       </c>
       <c r="D108" s="5" t="str">
         <f>VLOOKUP(C108,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Maintenance Bypass switch closed</v>
+        <v>Ups Warning</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="8" t="s">
@@ -16215,18 +16215,18 @@
         <v>216</v>
       </c>
       <c r="C109" s="10">
-        <v>126</v>
+        <v>1106</v>
       </c>
       <c r="D109" s="5" t="str">
         <f>VLOOKUP(C109,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Ups Warning</v>
+        <v>Warning Alarm active</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G109" s="16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H109" s="17">
         <v>0</v>
@@ -16249,11 +16249,11 @@
         <v>216</v>
       </c>
       <c r="C110" s="10">
-        <v>126</v>
+        <v>1106</v>
       </c>
       <c r="D110" s="5" t="str">
         <f>VLOOKUP(C110,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Ups Warning</v>
+        <v>Warning Alarm active</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="8" t="s">
@@ -16277,24 +16277,22 @@
     </row>
     <row r="111" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A111" s="10">
-        <v>4123</v>
+        <v>4872</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C111" s="10">
-        <v>1106</v>
+        <v>660</v>
       </c>
       <c r="D111" s="5" t="str">
         <f>VLOOKUP(C111,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Warning Alarm active</v>
+        <v>Output load supplied by inverter</v>
       </c>
       <c r="E111" s="5"/>
-      <c r="F111" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="F111" s="8"/>
       <c r="G111" s="16">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H111" s="17">
         <v>0</v>
@@ -16311,24 +16309,22 @@
     </row>
     <row r="112" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A112" s="10">
-        <v>4123</v>
+        <v>4872</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C112" s="10">
-        <v>1106</v>
+        <v>660</v>
       </c>
       <c r="D112" s="5" t="str">
         <f>VLOOKUP(C112,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Warning Alarm active</v>
+        <v>Output load supplied by inverter</v>
       </c>
       <c r="E112" s="5"/>
-      <c r="F112" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="F112" s="8"/>
       <c r="G112" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H112" s="17">
         <v>0</v>
@@ -16351,16 +16347,18 @@
         <v>207</v>
       </c>
       <c r="C113" s="10">
-        <v>660</v>
+        <v>621</v>
       </c>
       <c r="D113" s="5" t="str">
         <f>VLOOKUP(C113,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Output load supplied by inverter</v>
+        <v>Output load supplied by battery</v>
       </c>
       <c r="E113" s="5"/>
-      <c r="F113" s="8"/>
+      <c r="F113" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G113" s="16">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H113" s="17">
         <v>0</v>
@@ -16383,16 +16381,18 @@
         <v>207</v>
       </c>
       <c r="C114" s="10">
-        <v>660</v>
+        <v>621</v>
       </c>
       <c r="D114" s="5" t="str">
         <f>VLOOKUP(C114,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Output load supplied by inverter</v>
+        <v>Output load supplied by battery</v>
       </c>
       <c r="E114" s="5"/>
-      <c r="F114" s="8"/>
+      <c r="F114" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G114" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H114" s="17">
         <v>0</v>
@@ -16409,24 +16409,23 @@
     </row>
     <row r="115" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A115" s="10">
-        <v>4872</v>
+        <v>4223</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="C115" s="10">
-        <v>621</v>
-      </c>
-      <c r="D115" s="5" t="str">
-        <f>VLOOKUP(C115,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Output load supplied by battery</v>
-      </c>
-      <c r="E115" s="5"/>
-      <c r="F115" s="8" t="s">
-        <v>6</v>
-      </c>
+        <v>1885</v>
+      </c>
+      <c r="D115" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F115" s="8"/>
       <c r="G115" s="16">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="H115" s="17">
         <v>0</v>
@@ -16443,24 +16442,23 @@
     </row>
     <row r="116" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A116" s="10">
-        <v>4872</v>
+        <v>4223</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="C116" s="10">
-        <v>621</v>
-      </c>
-      <c r="D116" s="5" t="str">
-        <f>VLOOKUP(C116,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Output load supplied by battery</v>
-      </c>
-      <c r="E116" s="5"/>
-      <c r="F116" s="8" t="s">
-        <v>6</v>
-      </c>
+        <v>1885</v>
+      </c>
+      <c r="D116" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F116" s="8"/>
       <c r="G116" s="16">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H116" s="17">
         <v>0</v>
@@ -16477,17 +16475,16 @@
     </row>
     <row r="117" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A117" s="10">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C117" s="10">
         <v>1885</v>
       </c>
-      <c r="D117" s="5" t="str">
-        <f>VLOOKUP(C117,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Main controller fault</v>
+      <c r="D117" s="43" t="s">
+        <v>234</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>97</v>
@@ -16511,17 +16508,16 @@
     </row>
     <row r="118" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A118" s="10">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C118" s="10">
         <v>1885</v>
       </c>
-      <c r="D118" s="5" t="str">
-        <f>VLOOKUP(C118,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Main controller fault</v>
+      <c r="D118" s="43" t="s">
+        <v>234</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>97</v>
@@ -16545,24 +16541,23 @@
     </row>
     <row r="119" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A119" s="10">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C119" s="10">
         <v>1885</v>
       </c>
-      <c r="D119" s="5" t="str">
-        <f>VLOOKUP(C119,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Main controller fault</v>
+      <c r="D119" s="43" t="s">
+        <v>234</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>97</v>
       </c>
       <c r="F119" s="8"/>
       <c r="G119" s="16">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="H119" s="17">
         <v>0</v>
@@ -16579,24 +16574,23 @@
     </row>
     <row r="120" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A120" s="10">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C120" s="10">
         <v>1885</v>
       </c>
-      <c r="D120" s="5" t="str">
-        <f>VLOOKUP(C120,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Main controller fault</v>
+      <c r="D120" s="43" t="s">
+        <v>234</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>97</v>
       </c>
       <c r="F120" s="8"/>
       <c r="G120" s="16">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H120" s="17">
         <v>0</v>
@@ -16613,24 +16607,24 @@
     </row>
     <row r="121" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A121" s="10">
-        <v>4225</v>
+        <v>4156</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C121" s="10">
-        <v>1885</v>
+        <v>316</v>
       </c>
       <c r="D121" s="5" t="str">
         <f>VLOOKUP(C121,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Main controller fault</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F121" s="8"/>
+        <v>Battery temperature out of range</v>
+      </c>
+      <c r="E121" s="5"/>
+      <c r="F121" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G121" s="16">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="H121" s="17">
         <v>0</v>
@@ -16647,24 +16641,24 @@
     </row>
     <row r="122" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A122" s="10">
-        <v>4225</v>
+        <v>4156</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C122" s="10">
-        <v>1885</v>
+        <v>316</v>
       </c>
       <c r="D122" s="5" t="str">
         <f>VLOOKUP(C122,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Main controller fault</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F122" s="8"/>
+        <v>Battery temperature out of range</v>
+      </c>
+      <c r="E122" s="5"/>
+      <c r="F122" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G122" s="16">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H122" s="17">
         <v>0</v>
@@ -16680,216 +16674,80 @@
       </c>
     </row>
     <row r="123" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A123" s="10">
-        <v>4156</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C123" s="10">
-        <v>316</v>
-      </c>
-      <c r="D123" s="5" t="str">
-        <f>VLOOKUP(C123,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Battery temperature out of range</v>
-      </c>
+      <c r="A123" s="15"/>
+      <c r="B123" s="52"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="5"/>
       <c r="E123" s="5"/>
-      <c r="F123" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G123" s="16">
-        <v>19</v>
-      </c>
-      <c r="H123" s="17">
-        <v>0</v>
-      </c>
-      <c r="I123" s="17">
-        <v>10</v>
-      </c>
-      <c r="J123" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K123" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="F123" s="8"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="16"/>
     </row>
     <row r="124" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A124" s="10">
-        <v>4156</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C124" s="10">
-        <v>316</v>
-      </c>
-      <c r="D124" s="5" t="str">
-        <f>VLOOKUP(C124,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Battery temperature out of range</v>
-      </c>
+      <c r="A124" s="15"/>
+      <c r="B124" s="52"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="5"/>
       <c r="E124" s="5"/>
-      <c r="F124" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G124" s="16">
-        <v>0</v>
-      </c>
-      <c r="H124" s="17">
-        <v>0</v>
-      </c>
-      <c r="I124" s="17">
-        <v>10</v>
-      </c>
-      <c r="J124" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K124" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="F124" s="8"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="17"/>
+      <c r="K124" s="16"/>
     </row>
     <row r="125" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A125" s="15">
-        <v>9999</v>
-      </c>
-      <c r="B125" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="C125" s="6">
-        <v>647</v>
-      </c>
-      <c r="D125" s="5" t="str">
-        <f>VLOOKUP(C125,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Load on bypass warning</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G125" s="16">
-        <v>19</v>
-      </c>
-      <c r="H125" s="17">
-        <v>0</v>
-      </c>
-      <c r="I125" s="17">
-        <v>10</v>
-      </c>
-      <c r="J125" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K125" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="A125" s="15"/>
+      <c r="B125" s="52"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="17"/>
+      <c r="K125" s="16"/>
     </row>
     <row r="126" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A126" s="15">
-        <v>9999</v>
-      </c>
-      <c r="B126" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="C126" s="6">
-        <v>270</v>
-      </c>
-      <c r="D126" s="5" t="str">
-        <f>VLOOKUP(C126,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Emergency primary mains failure</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G126" s="16">
-        <v>19</v>
-      </c>
-      <c r="H126" s="17">
-        <v>0</v>
-      </c>
-      <c r="I126" s="17">
-        <v>10</v>
-      </c>
-      <c r="J126" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K126" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="A126" s="15"/>
+      <c r="B126" s="52"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="17"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17"/>
+      <c r="K126" s="16"/>
     </row>
     <row r="127" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A127" s="15">
-        <v>9999</v>
-      </c>
-      <c r="B127" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="C127" s="6">
-        <v>243</v>
-      </c>
-      <c r="D127" s="5" t="str">
-        <f>VLOOKUP(C127,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Primary Mains power recovered</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G127" s="16">
-        <v>19</v>
-      </c>
-      <c r="H127" s="17">
-        <v>0</v>
-      </c>
-      <c r="I127" s="17">
-        <v>10</v>
-      </c>
-      <c r="J127" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K127" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="A127" s="7"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="17"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="17"/>
+      <c r="K127" s="16"/>
     </row>
     <row r="128" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A128" s="15">
-        <v>9999</v>
-      </c>
-      <c r="B128" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="C128" s="6">
-        <v>572</v>
-      </c>
-      <c r="D128" s="5" t="str">
-        <f>VLOOKUP(C128,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Emergency reserve supply failure</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F128" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G128" s="16">
-        <v>19</v>
-      </c>
-      <c r="H128" s="17">
-        <v>0</v>
-      </c>
-      <c r="I128" s="17">
-        <v>10</v>
-      </c>
-      <c r="J128" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K128" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="A128" s="7"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="17"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="17"/>
+      <c r="K128" s="16"/>
     </row>
     <row r="129" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A129" s="7"/>
@@ -16932,7 +16790,7 @@
       <c r="C132" s="6"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
-      <c r="F132" s="8"/>
+      <c r="F132" s="11"/>
       <c r="G132" s="16"/>
       <c r="H132" s="17"/>
       <c r="I132" s="17"/>
@@ -16944,7 +16802,7 @@
       <c r="C133" s="6"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
-      <c r="F133" s="8"/>
+      <c r="F133" s="11"/>
       <c r="G133" s="16"/>
       <c r="H133" s="17"/>
       <c r="I133" s="17"/>
@@ -16956,7 +16814,7 @@
       <c r="C134" s="6"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
-      <c r="F134" s="11"/>
+      <c r="F134" s="8"/>
       <c r="G134" s="16"/>
       <c r="H134" s="17"/>
       <c r="I134" s="17"/>
@@ -16968,7 +16826,7 @@
       <c r="C135" s="6"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
-      <c r="F135" s="11"/>
+      <c r="F135" s="8"/>
       <c r="G135" s="16"/>
       <c r="H135" s="17"/>
       <c r="I135" s="17"/>
@@ -17112,7 +16970,7 @@
       <c r="C147" s="6"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
-      <c r="F147" s="8"/>
+      <c r="F147" s="11"/>
       <c r="G147" s="16"/>
       <c r="H147" s="17"/>
       <c r="I147" s="17"/>
@@ -17136,7 +16994,7 @@
       <c r="C149" s="6"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
-      <c r="F149" s="11"/>
+      <c r="F149" s="8"/>
       <c r="G149" s="16"/>
       <c r="H149" s="17"/>
       <c r="I149" s="17"/>
@@ -17432,8 +17290,7 @@
       <c r="K173" s="16"/>
     </row>
     <row r="174" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A174" s="7"/>
-      <c r="C174" s="6"/>
+      <c r="B174" s="6"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
       <c r="F174" s="8"/>
@@ -17444,8 +17301,7 @@
       <c r="K174" s="16"/>
     </row>
     <row r="175" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A175" s="7"/>
-      <c r="C175" s="6"/>
+      <c r="B175" s="6"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="8"/>
@@ -17588,7 +17444,8 @@
       <c r="K187" s="16"/>
     </row>
     <row r="188" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="B188" s="6"/>
+      <c r="A188" s="7"/>
+      <c r="C188" s="6"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
       <c r="F188" s="8"/>
@@ -17599,7 +17456,8 @@
       <c r="K188" s="16"/>
     </row>
     <row r="189" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="B189" s="6"/>
+      <c r="A189" s="7"/>
+      <c r="C189" s="6"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
       <c r="F189" s="8"/>
@@ -17610,7 +17468,7 @@
       <c r="K189" s="16"/>
     </row>
     <row r="190" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A190" s="7"/>
+      <c r="B190" s="6"/>
       <c r="C190" s="6"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -17632,30 +17490,6 @@
       <c r="I191" s="17"/>
       <c r="J191" s="17"/>
       <c r="K191" s="16"/>
-    </row>
-    <row r="192" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="B192" s="6"/>
-      <c r="C192" s="6"/>
-      <c r="D192" s="5"/>
-      <c r="E192" s="5"/>
-      <c r="F192" s="8"/>
-      <c r="G192" s="16"/>
-      <c r="H192" s="17"/>
-      <c r="I192" s="17"/>
-      <c r="J192" s="17"/>
-      <c r="K192" s="16"/>
-    </row>
-    <row r="193" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A193" s="7"/>
-      <c r="C193" s="6"/>
-      <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
-      <c r="F193" s="8"/>
-      <c r="G193" s="16"/>
-      <c r="H193" s="17"/>
-      <c r="I193" s="17"/>
-      <c r="J193" s="17"/>
-      <c r="K193" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
